--- a/VORLAGE_Sonnenliege.xlsx
+++ b/VORLAGE_Sonnenliege.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Samuel-Data\Programmieren\Python\ups-worldship-formatter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ups-worldship-formatter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90ED2764-9B07-40C3-85C5-704F90C25309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6F089F-01CF-4A6D-A4FE-7489DE64755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -321,6 +321,18 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -330,9 +342,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,15 +350,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -747,47 +747,47 @@
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="18" customWidth="1"/>
-    <col min="3" max="6" width="15.375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="12" customWidth="1"/>
+    <col min="3" max="6" width="15.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="12" customWidth="1"/>
     <col min="8" max="8" width="30.875" style="6" customWidth="1"/>
     <col min="9" max="9" width="10.875" style="6"/>
     <col min="10" max="11" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
@@ -831,12 +831,12 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -846,12 +846,12 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -861,12 +861,12 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -876,12 +876,12 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -891,12 +891,12 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -906,12 +906,12 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -921,12 +921,12 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -936,12 +936,12 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -951,12 +951,12 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -966,12 +966,12 @@
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -981,12 +981,12 @@
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -996,12 +996,12 @@
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1011,12 +1011,12 @@
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1026,12 +1026,12 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1041,12 +1041,12 @@
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1056,12 +1056,12 @@
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1071,12 +1071,12 @@
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1086,12 +1086,12 @@
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1101,12 +1101,12 @@
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1116,12 +1116,12 @@
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1131,12 +1131,12 @@
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1146,12 +1146,12 @@
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1161,12 +1161,12 @@
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1176,12 +1176,12 @@
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1191,12 +1191,12 @@
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1206,12 +1206,12 @@
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1221,12 +1221,12 @@
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1236,12 +1236,12 @@
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1251,12 +1251,12 @@
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1266,12 +1266,12 @@
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1281,12 +1281,12 @@
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1296,12 +1296,12 @@
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1311,12 +1311,12 @@
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -1326,12 +1326,12 @@
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1341,12 +1341,12 @@
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1356,12 +1356,12 @@
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -1371,12 +1371,12 @@
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -1386,12 +1386,12 @@
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -1401,12 +1401,12 @@
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -1416,12 +1416,12 @@
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -1431,12 +1431,12 @@
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -1446,12 +1446,12 @@
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -1461,12 +1461,12 @@
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -1476,12 +1476,12 @@
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -1491,12 +1491,12 @@
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -1506,12 +1506,12 @@
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -1521,12 +1521,12 @@
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -1536,12 +1536,12 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -1551,12 +1551,12 @@
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -1566,12 +1566,12 @@
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -1581,12 +1581,12 @@
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -1596,12 +1596,12 @@
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -1611,12 +1611,12 @@
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -1626,12 +1626,12 @@
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -1641,12 +1641,12 @@
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -1656,12 +1656,12 @@
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -1671,12 +1671,12 @@
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -1686,12 +1686,12 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -1701,12 +1701,12 @@
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -1716,12 +1716,12 @@
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -1731,12 +1731,12 @@
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -1746,12 +1746,12 @@
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -1761,12 +1761,12 @@
       <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -1776,12 +1776,12 @@
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -1791,12 +1791,12 @@
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -1806,12 +1806,12 @@
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -1821,12 +1821,12 @@
       <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -1836,12 +1836,12 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -1851,12 +1851,12 @@
       <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -1866,12 +1866,12 @@
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -1881,12 +1881,12 @@
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -1896,12 +1896,12 @@
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -1911,12 +1911,12 @@
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -1926,12 +1926,12 @@
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -1941,12 +1941,12 @@
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -1956,12 +1956,12 @@
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
